--- a/docs/assets/cursos/EP/LOQ4217.xlsx
+++ b/docs/assets/cursos/EP/LOQ4217.xlsx
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2012</t>
+    <t>01/01/2021</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar os conceitos básicos da Logística Empresarial e da Gestão da Cadeia de Suprimentos. Capacitar o aluno para aplicação de técnicas e métodos quantitativos para otimização dos problemas em Logística e Cadeias de Suprimentos.</t>
+    <t>Apresentar os conceitos de Logística, Logística Reversa e Gestão da Cadeia de Suprimentos. Capacitar o aluno para aplicação de técnicas e métodos quantitativos para otimização dos problemas em Logística e Cadeias de Suprimentos.</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -85,7 +85,7 @@
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Logística Integrada, Serviço ao Cliente, Administração do Transporte, Custos Logísticos, Armazenagem e Localização das Instalações, Tecnologia de Informação Aplicada à Logística, Canais de Distribuição e Distribuição Física, Roterização de Veículos e Operadores Logísticos, Organização e Controle de Estoques.</t>
+    <t>1. Introdução: 2. Gestão estratégica3. Gestão dos relacionamentos4. Gestão global de suprimentos5. Avaliação de desempenho6. Mapeamento e análise de processos7. Gestão de demanda8. Gestão e coordenação de estoques9. Gestão da logística10. Logística reversa</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,54 +94,7 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Logística Integrada 
-1.1. O trabalho da logística; 
-1.2. Logística integrada; 
-1.3. Objetivos operacionais; 
-1.4. Barreiras à integração interna; 
-1.5. Ciclos de atividades da logística; 
-1.6. Gerenciamento da incerteza operacional;
-2. Serviço ao Cliente
-2.1. Marketing focado no cliente; 
-2.2. Definição de serviço ao cliente; 
-2.3. Capacidade de prestação de serviço básico;
-2.4. Crescentes expectativas dos clientes; 
-2.5. Atendimento de pedido perfeito; 
-2.6. Serviços com valor agregado;
-3. Administração do Transporte
-3.1. Funcionalidade e princípios do transporte;
-3.2. Infra-estrutura de transporte;
-3.3. Prestadores de serviços de transporte;
-3.4. Aspectos básicos da economia e da formação de preço de transporte;
-3.5. Tomadas de decisão em transporte;
-4. Custos Logísticos.
-4.1. Planejamento das operações;
-4.2. Métricas do projeto logístico;
-4.3. Formação de preços;
-5. Armazenagem e Localização das Instalações.
-5.1. Funcionalidade e princípios da estocagem;
-5.2. Recursos de armazenagem;
-5.3. Reengenharia logística;
-5.4. Logística baseada no tempo;
-5.5. Estratégias logísticas alternativas;
-5.6. Integração estratégica;
-5.7. Técnicas de controle da logística baseada no tempo;
-6. Tecnologia de Informação Aplicada à Logística.
-6.1. Funcionalidade e princípio da informação;
-6.2. Arquitetura da informação;
-6.3. Aplicações de novas tecnologias de informação;
-6.4. Padrões de intercâmbio eletrônico de dados;
-7. Canais de Distribuição e Distribuição Física
-7.1. Estrutura dos canais;
-7.2. Aspectos econômicos da distribuição;
-7.3. Relacionamentos no canal;
-7.4. Alianças de serviços logísticos;
-8. Roterização de Veículos e Operadores Logísticos
-9. Organização e Controle de Estoques
-9.1. Processo de elaboração de previsões;
-9.2. Técnicas de previsão;
-9.3. Planejamento do estoque;
-9.4. Políticas de gerenciamento de estoques;</t>
+    <t>1. Introdução: A concorrência entre cadeias de suprimento. Definição operacional. A globalização e a gestão de cadeia de suprimentos. Governança das cadeias de suprimentos2. Gestão estratégica: Estratégia de cadeia de suprimentos. Produtos funcionais x produtos inovadores. Fluxos empurrados puxados e híbridos. Custo de transação e a decisão estratégica de comprar ou fazer. Padronização. Integração de parceiros da cadeia de suprimento no projeto de novos produtos e processos.3. Gestão dos relacionamentos: Confiança entre parceiros. Negociação. Gestão do relacionamento com clientes. Segmentação de produtos. Gestão do relacionamento com fornecedores4. Gestão global de suprimentos: Tipos de suplemento. Estrutura organizacional para suprimentos. O processo de suprimento. Coopetição. Ética e responsabilidade social na gestão global de suprimentos5. Avaliação de desempenho: O que é medição de desempenho? Porque medir desempenho. Características de uma boa medida de desempenho. Alinhamento de incentivos em cadeias globais de suprimento. Tipos de contrato de relacionamento6. Mapeamento e análise de processos: Principais processos na cadeia de suprimento. O modelo SCOR (Supply Chain Operations Reference). Análise e melhoramento de processos.7. Gestão de demanda: Ações sobre a demanda para redução de variabilidade. Causas da variabilidade da demanda. Previsão de demanda. Processo de previsão de vendas. Métodos usados em previsões. Método Delphi. Incerteza de previsão8. Gestão e coordenação de estoques: Definição de estoques. Causa do surgimento dos estoques. Tipos de estoque. VMI (vendor management inventory) - estoque gerenciado pelo distribuidor. VOI (vendor owner inventory) - consignação9. Gestão da logística: Centralização versus descentralização. Pontos de armazenagem/distribuição. Funções dos armazéns. Sistemas logísticos escalonados. Localização de unidades logísticas. Gestão de transportes na cadeia de suprimentos.10. Logística reversa: Conceito, importância, estrutura e tendências. Sustentabilidade. Ciclo fechado. Tipos de ciclo fechado. Motivação empresarial. Gerenciamento integrado de resíduos. Modelos de roteirização. Programação de frotas de veículos.</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -159,22 +112,19 @@
     <t>Critério:</t>
   </si>
   <si>
-    <t>Média aritmética de duas provas teóricas.</t>
+    <t>Média de Provas e trabalhos (MF).</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média aritmética da nota final obtida pelo aluno durante o semestre e da nota obtida na Prova de Recuperação.</t>
+    <t>Prova de Recuperação (PR). A Nota final (NF) será a média aritmética entre MF e PR</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>CORRÊA, H. L.; CORRÊA, C. A., Administração de Produção e Operações - Manufatura e Serviços: Uma Abordagem Estratégica., Editora Atlas, 2005.
-CONTADOR, J. C., Gestão de Operações.,  2ª ed., Ed. Edgard Blücher, 2001.
-SLACK, N.; CHAMBERS, S.; JOHNSTON, R., Administração da Produção., 3ª ed. Editora Atlas, 2009.
-VOLLMANN, T. E.; BERRY, W. L.; WHYBARK, D. C., Manufacturing Planning and Control Systems., 4ª ed., McGraw-Hill, 1997.</t>
+    <t>CORRÊA, HENRIQUE LUIZ. Gestão de rede de suprimento: integrando cadeias de suprimento no mundo globalizado. Editora Atlas, 2009CORREA, HENRIQUE LUIZ. Administração de cadeias de suprimento e logística: o essencial. Editora Atlas 2014PIRES, SÉRGIO. Gestão da cadeia de suprimentos (Supply Chain Management): conceitos, estratégias, práticas e casos. Editora Atlas segunda edição. 2009IYER, ANANTH; SESHHADRI, SHIDHAR; VASHER, ROY. A gestão da cadeia de suprimentos da Toyota. Bookman. 2009MYERSON, PAUL. Lean Supply Chain and logistics management. McGrawHill. 2012</t>
   </si>
   <si>
     <t>Requisitos:</t>
